--- a/IntegraciónAI/data_preparation/sources/MatchIndicadoresAI - ACNUR OSMOSYS 03JUNIO2022_ae.xlsx
+++ b/IntegraciónAI/data_preparation/sources/MatchIndicadoresAI - ACNUR OSMOSYS 03JUNIO2022_ae.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\OSMOSYS_2022\IntegraciónAI\data_preparation\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760ACC6C-3C3F-4B6C-BFA1-93BF8A68499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A1B81E-2FBA-44F2-B9E1-B254E3C1A44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AFFE914A-423E-4A17-A566-F5DFA85EAE16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFFE914A-423E-4A17-A566-F5DFA85EAE16}"/>
   </bookViews>
   <sheets>
     <sheet name="MatchIndicadores" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="192">
   <si>
     <t>gtrm_sector</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t xml:space="preserve">Comunicación </t>
+  </si>
+  <si>
+    <t>HE071</t>
   </si>
 </sst>
 </file>
@@ -809,8 +812,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D261881B-F337-4B2A-9382-6169B2A5EFD8}" name="Table3" displayName="Table3" ref="A1:H45" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:H45" xr:uid="{D261881B-F337-4B2A-9382-6169B2A5EFD8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D261881B-F337-4B2A-9382-6169B2A5EFD8}" name="Table3" displayName="Table3" ref="A1:H44" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:H44" xr:uid="{D261881B-F337-4B2A-9382-6169B2A5EFD8}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{38B27B07-04D7-4C1B-AEFA-C84C0B3C6098}" name="gtrm_sector" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{6508552A-9474-4FDA-B2E9-10297229F82B}" name="gtrm_codigo" dataDxfId="17"/>
@@ -1161,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528CF96E-5DE2-473D-9B5C-C06A63B53BEE}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,10 +2249,10 @@
         <v>170</v>
       </c>
       <c r="E45" s="5">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>68</v>
@@ -2260,9 +2263,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
